--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>photo đề,</t>
+  </si>
+  <si>
+    <t>15/3/2018</t>
+  </si>
+  <si>
+    <t>tiền nước uống</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1538,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,12 +1636,20 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>20000</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
@@ -1665,11 +1679,11 @@
       </c>
       <c r="F7" s="23">
         <f>SUM(F2:F6)</f>
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="G7" s="24">
         <f>D7+E7-F7</f>
-        <v>482000</v>
+        <v>462000</v>
       </c>
       <c r="H7" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>tiền nước uống</t>
+  </si>
+  <si>
+    <t>16/3/2018</t>
+  </si>
+  <si>
+    <t>tiền photo đề</t>
   </si>
 </sst>
 </file>
@@ -1535,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,43 +1659,81 @@
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>5000</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="23">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="23">
-        <f>SUM(E2:E6)</f>
+      <c r="E10" s="23">
+        <f>SUM(E2:E9)</f>
         <v>500000</v>
       </c>
-      <c r="F7" s="23">
-        <f>SUM(F2:F6)</f>
-        <v>38000</v>
-      </c>
-      <c r="G7" s="24">
-        <f>D7+E7-F7</f>
-        <v>462000</v>
-      </c>
-      <c r="H7" s="22"/>
+      <c r="F10" s="23">
+        <f>SUM(F2:F9)</f>
+        <v>43000</v>
+      </c>
+      <c r="G10" s="24">
+        <f>D10+E10-F10</f>
+        <v>457000</v>
+      </c>
+      <c r="H10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>tiền photo đề</t>
+  </si>
+  <si>
+    <t>17/3/2018</t>
+  </si>
+  <si>
+    <t>lấy biển in bên Đại Hữu</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,12 +1684,20 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>20000</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
     </row>
@@ -1697,7 +1711,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -1707,33 +1721,93 @@
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="23">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="23">
-        <f>SUM(E2:E9)</f>
+      <c r="E16" s="23">
+        <f>SUM(E2:E15)</f>
         <v>500000</v>
       </c>
-      <c r="F10" s="23">
-        <f>SUM(F2:F9)</f>
-        <v>43000</v>
-      </c>
-      <c r="G10" s="24">
-        <f>D10+E10-F10</f>
-        <v>457000</v>
-      </c>
-      <c r="H10" s="22"/>
+      <c r="F16" s="23">
+        <f>SUM(F2:F15)</f>
+        <v>63000</v>
+      </c>
+      <c r="G16" s="24">
+        <f>D16+E16-F16</f>
+        <v>437000</v>
+      </c>
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,12 +1702,20 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>12000</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
@@ -1797,11 +1805,11 @@
       </c>
       <c r="F16" s="23">
         <f>SUM(F2:F15)</f>
-        <v>63000</v>
+        <v>75000</v>
       </c>
       <c r="G16" s="24">
         <f>D16+E16-F16</f>
-        <v>437000</v>
+        <v>425000</v>
       </c>
       <c r="H16" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>lấy biển in bên Đại Hữu</t>
+  </si>
+  <si>
+    <t>19/3/2018</t>
+  </si>
+  <si>
+    <t>photo thông tin học viên (100t)</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1556,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,12 +1726,20 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>18000</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
     </row>
@@ -1805,11 +1819,11 @@
       </c>
       <c r="F16" s="23">
         <f>SUM(F2:F15)</f>
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="G16" s="24">
         <f>D16+E16-F16</f>
-        <v>425000</v>
+        <v>407000</v>
       </c>
       <c r="H16" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>photo thông tin học viên (100t)</t>
+  </si>
+  <si>
+    <t>học phí bạn hùng toeic Bk7</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1559,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,11 +1747,19 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>1800000</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
@@ -1815,7 +1826,7 @@
       </c>
       <c r="E16" s="23">
         <f>SUM(E2:E15)</f>
-        <v>500000</v>
+        <v>2300000</v>
       </c>
       <c r="F16" s="23">
         <f>SUM(F2:F15)</f>
@@ -1823,7 +1834,7 @@
       </c>
       <c r="G16" s="24">
         <f>D16+E16-F16</f>
-        <v>407000</v>
+        <v>2207000</v>
       </c>
       <c r="H16" s="22"/>
     </row>
@@ -1832,5 +1843,6 @@
     <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>học phí bạn hùng toeic Bk7</t>
+  </si>
+  <si>
+    <t>20/3/2018</t>
+  </si>
+  <si>
+    <t>mua bộ vệ sinh máy tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in đề </t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,27 +1774,45 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>20000</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>10000</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1795,7 +1822,9 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1804,8 +1833,10 @@
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1814,33 +1845,125 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="23">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="23">
-        <f>SUM(E2:E15)</f>
+      <c r="E24" s="23">
+        <f>SUM(E2:E23)</f>
         <v>2300000</v>
       </c>
-      <c r="F16" s="23">
-        <f>SUM(F2:F15)</f>
-        <v>93000</v>
-      </c>
-      <c r="G16" s="24">
-        <f>D16+E16-F16</f>
-        <v>2207000</v>
-      </c>
-      <c r="H16" s="22"/>
+      <c r="F24" s="23">
+        <f>SUM(F2:F23)</f>
+        <v>123000</v>
+      </c>
+      <c r="G24" s="24">
+        <f>D24+E24-F24</f>
+        <v>2177000</v>
+      </c>
+      <c r="H24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t xml:space="preserve">in đề </t>
+  </si>
+  <si>
+    <t>22/3/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trả cho bạn hoàng anh bk9 </t>
   </si>
 </sst>
 </file>
@@ -1567,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,11 +1819,17 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21">
+        <v>30000</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
     </row>
@@ -1953,11 +1965,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>123000</v>
+        <v>153000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>2177000</v>
+        <v>2147000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t xml:space="preserve">trả cho bạn hoàng anh bk9 </t>
+  </si>
+  <si>
+    <t>23/3/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  in sách bài tap(8quyen)</t>
+  </si>
+  <si>
+    <t>thu tiền sách bài tập</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,11 +1846,17 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21">
+        <v>8000</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
@@ -1849,11 +1864,17 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>400000</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
@@ -1861,10 +1882,16 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="21">
+        <v>250000</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
@@ -1961,15 +1988,15 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>2300000</v>
+        <v>2550000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>153000</v>
+        <v>561000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>2147000</v>
+        <v>1989000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>thu tiền sách bài tập</t>
+  </si>
+  <si>
+    <t>24/3/2018</t>
+  </si>
+  <si>
+    <t>mua nước uống</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1589,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,11 +1906,17 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>20000</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
     </row>
@@ -1992,11 +2004,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>561000</v>
+        <v>581000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>1989000</v>
+        <v>1969000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>mua nước uống</t>
+  </si>
+  <si>
+    <t>26/3/2018</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1592,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -1924,10 +1927,16 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21">
+        <v>50000</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
@@ -2000,7 +2009,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>2550000</v>
+        <v>2650000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -2008,7 +2017,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>1969000</v>
+        <v>2069000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>26/3/2018</t>
+  </si>
+  <si>
+    <t>mua giấy vệ sinh, túi đựng rác</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1595,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,11 +1948,17 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21">
+        <v>6500</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
     </row>
@@ -2013,11 +2022,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>581000</v>
+        <v>587500</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>2069000</v>
+        <v>2062500</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -239,9 +239,6 @@
     <t>23/3/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">  in sách bài tap(8quyen)</t>
-  </si>
-  <si>
     <t>thu tiền sách bài tập</t>
   </si>
   <si>
@@ -255,6 +252,27 @@
   </si>
   <si>
     <t>mua giấy vệ sinh, túi đựng rác</t>
+  </si>
+  <si>
+    <t>28/3/2018</t>
+  </si>
+  <si>
+    <t>29/3/2018</t>
+  </si>
+  <si>
+    <t>Lớp BK6</t>
+  </si>
+  <si>
+    <t>Lớp AK8, BK7</t>
+  </si>
+  <si>
+    <t>photo full Reading Test 5</t>
+  </si>
+  <si>
+    <t>photo đề</t>
+  </si>
+  <si>
+    <t>in sách bài tap (8quyen)</t>
   </si>
 </sst>
 </file>
@@ -940,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1898,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
@@ -1898,7 +1916,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21">
@@ -1913,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -1931,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21">
@@ -1949,10 +1967,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -1966,25 +1984,41 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="21">
+        <v>22000</v>
+      </c>
       <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>12000</v>
+      </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -2022,11 +2056,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>587500</v>
+        <v>621500</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>2062500</v>
+        <v>2028500</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21">
-        <v>6500</v>
+        <v>65000</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
@@ -2056,11 +2056,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>621500</v>
+        <v>680000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>2028500</v>
+        <v>1970000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>in sách bài tap (8quyen)</t>
+  </si>
+  <si>
+    <t>30/3/2018</t>
+  </si>
+  <si>
+    <t>Nhận tiền quỹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo full Listening </t>
   </si>
 </sst>
 </file>
@@ -1610,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,52 +2030,80 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21">
+        <v>500000</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <v>10000</v>
+      </c>
       <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="23">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="23">
-        <f>SUM(E2:E23)</f>
-        <v>2650000</v>
-      </c>
-      <c r="F24" s="23">
-        <f>SUM(F2:F23)</f>
-        <v>680000</v>
-      </c>
-      <c r="G24" s="24">
-        <f>D24+E24-F24</f>
-        <v>1970000</v>
-      </c>
-      <c r="H24" s="22"/>
+      <c r="E25" s="23">
+        <f>SUM(E2:E24)</f>
+        <v>3150000</v>
+      </c>
+      <c r="F25" s="23">
+        <f>SUM(F2:F24)</f>
+        <v>690000</v>
+      </c>
+      <c r="G25" s="24">
+        <f>D25+E25-F25</f>
+        <v>2460000</v>
+      </c>
+      <c r="H25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
     <sheet name="Thang 1 - 2018" sheetId="15" r:id="rId2"/>
     <sheet name="Thang 2 - 2018" sheetId="16" r:id="rId3"/>
     <sheet name="Thang 3 - 2018" sheetId="18" r:id="rId4"/>
+    <sheet name="Thang 4" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -282,6 +283,18 @@
   </si>
   <si>
     <t xml:space="preserve">Photo full Listening </t>
+  </si>
+  <si>
+    <t>31/3/2018</t>
+  </si>
+  <si>
+    <t>Lớp AK8</t>
+  </si>
+  <si>
+    <t>Photo Test 1+2 Part 4</t>
+  </si>
+  <si>
+    <t>Photo Test cuối khóa</t>
   </si>
 </sst>
 </file>
@@ -968,7 +981,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1486,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,45 +2080,224 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21">
+        <v>17000</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="23">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="23">
-        <f>SUM(E2:E24)</f>
+      <c r="E26" s="23">
+        <f>SUM(E2:E25)</f>
         <v>3150000</v>
       </c>
-      <c r="F25" s="23">
-        <f>SUM(F2:F24)</f>
-        <v>690000</v>
-      </c>
-      <c r="G25" s="24">
-        <f>D25+E25-F25</f>
-        <v>2460000</v>
-      </c>
-      <c r="H25" s="22"/>
+      <c r="F26" s="23">
+        <f>SUM(F2:F25)</f>
+        <v>707000</v>
+      </c>
+      <c r="G26" s="24">
+        <f>D26+E26-F26</f>
+        <v>2443000</v>
+      </c>
+      <c r="H26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43191</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 3 - 2018'!G26</f>
+        <v>2443000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>2443000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43192</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="11">
+        <v>35000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43192</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="23">
+        <f>SUM(D2:D5)</f>
+        <v>2443000</v>
+      </c>
+      <c r="E7" s="23">
+        <f>SUM(E2:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <f>SUM(F2:F6)</f>
+        <v>283000</v>
+      </c>
+      <c r="G7" s="24">
+        <f>D7+E7-F7</f>
+        <v>2160000</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Photo Test cuối khóa</t>
+  </si>
+  <si>
+    <t>Photo Test 9 full reading</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2145,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,16 +2255,26 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9">
+        <v>43193</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>30000</v>
+      </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2270,33 +2283,123 @@
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="23">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E7" s="23">
-        <f>SUM(E2:E6)</f>
+      <c r="E15" s="23">
+        <f>SUM(E2:E14)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="23">
-        <f>SUM(F2:F6)</f>
-        <v>283000</v>
-      </c>
-      <c r="G7" s="24">
-        <f>D7+E7-F7</f>
-        <v>2160000</v>
-      </c>
-      <c r="H7" s="22"/>
+      <c r="F15" s="23">
+        <f>SUM(F2:F14)</f>
+        <v>313000</v>
+      </c>
+      <c r="G15" s="24">
+        <f>D15+E15-F15</f>
+        <v>2130000</v>
+      </c>
+      <c r="H15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -298,6 +298,21 @@
   </si>
   <si>
     <t>Photo Test 9 full reading</t>
+  </si>
+  <si>
+    <t>Tiền nước suối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Test cuối khóa </t>
+  </si>
+  <si>
+    <t>In giấy tờ + in ảnh</t>
+  </si>
+  <si>
+    <t>Phí nộp tiền vào tài khoản</t>
+  </si>
+  <si>
+    <t>ĐKDT bạn Oanh</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1653,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2166,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,11 +2290,17 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="19">
+        <v>43195</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>20000</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="20"/>
     </row>
@@ -2287,23 +2308,37 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="19">
+        <v>43195</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>54000</v>
+      </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19">
+        <v>43196</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>15000</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
@@ -2311,13 +2346,21 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="19">
+        <v>43196</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>10000</v>
+      </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
@@ -2389,11 +2432,11 @@
       </c>
       <c r="F15" s="23">
         <f>SUM(F2:F14)</f>
-        <v>313000</v>
+        <v>412000</v>
       </c>
       <c r="G15" s="24">
         <f>D15+E15-F15</f>
-        <v>2130000</v>
+        <v>2031000</v>
       </c>
       <c r="H15" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,11 +2366,17 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="19">
+        <v>43199</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>26000</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
@@ -2378,10 +2384,16 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="19">
+        <v>43199</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21">
+        <v>500000</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
@@ -2428,15 +2440,15 @@
       </c>
       <c r="E15" s="23">
         <f>SUM(E2:E14)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F15" s="23">
         <f>SUM(F2:F14)</f>
-        <v>412000</v>
+        <v>438000</v>
       </c>
       <c r="G15" s="24">
         <f>D15+E15-F15</f>
-        <v>2031000</v>
+        <v>2505000</v>
       </c>
       <c r="H15" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>ĐKDT bạn Oanh</t>
+  </si>
+  <si>
+    <t>Viết bi</t>
+  </si>
+  <si>
+    <t>5 cây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In màu </t>
   </si>
 </sst>
 </file>
@@ -2163,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,26 +2408,44 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>43199</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>15000</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>43199</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21">
+        <v>2000</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -2428,33 +2455,53 @@
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="23">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E15" s="23">
-        <f>SUM(E2:E14)</f>
+      <c r="E17" s="23">
+        <f>SUM(E2:E16)</f>
         <v>500000</v>
       </c>
-      <c r="F15" s="23">
-        <f>SUM(F2:F14)</f>
-        <v>438000</v>
-      </c>
-      <c r="G15" s="24">
-        <f>D15+E15-F15</f>
-        <v>2505000</v>
-      </c>
-      <c r="H15" s="22"/>
+      <c r="F17" s="23">
+        <f>SUM(F2:F16)</f>
+        <v>455000</v>
+      </c>
+      <c r="G17" s="24">
+        <f>D17+E17-F17</f>
+        <v>2488000</v>
+      </c>
+      <c r="H17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t xml:space="preserve">In màu </t>
+  </si>
+  <si>
+    <t>Photo + in giấy tờ</t>
+  </si>
+  <si>
+    <t>Công chứng giấy tờ</t>
   </si>
 </sst>
 </file>
@@ -2172,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,26 +2452,42 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>43201</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21">
+        <v>50000</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>43201</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>138000</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -2475,33 +2497,53 @@
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="23">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E17" s="23">
-        <f>SUM(E2:E16)</f>
+      <c r="E19" s="23">
+        <f>SUM(E2:E18)</f>
         <v>500000</v>
       </c>
-      <c r="F17" s="23">
-        <f>SUM(F2:F16)</f>
-        <v>455000</v>
-      </c>
-      <c r="G17" s="24">
-        <f>D17+E17-F17</f>
-        <v>2488000</v>
-      </c>
-      <c r="H17" s="22"/>
+      <c r="F19" s="23">
+        <f>SUM(F2:F18)</f>
+        <v>643000</v>
+      </c>
+      <c r="G19" s="24">
+        <f>D19+E19-F19</f>
+        <v>2300000</v>
+      </c>
+      <c r="H19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Công chứng giấy tờ</t>
+  </si>
+  <si>
+    <t>Công chứng giấy tờ (tiếng anh)</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2184,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2467,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
@@ -2488,12 +2491,20 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>43202</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21">
+        <v>22000</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
     </row>
@@ -2533,11 +2544,11 @@
       </c>
       <c r="F19" s="23">
         <f>SUM(F2:F18)</f>
-        <v>643000</v>
+        <v>675000</v>
       </c>
       <c r="G19" s="24">
         <f>D19+E19-F19</f>
-        <v>2300000</v>
+        <v>2268000</v>
       </c>
       <c r="H19" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Công chứng giấy tờ (tiếng anh)</t>
+  </si>
+  <si>
+    <t>Học Phí TOEIC BK8</t>
+  </si>
+  <si>
+    <t>Phan Thị Quỳnh Liên (giảm 40,4%)</t>
+  </si>
+  <si>
+    <t>Đóng tập hồ sơ</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,52 +2518,130 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43202</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>35000</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>43202</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21">
+        <v>1430000</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="H18" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="23">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E19" s="23">
-        <f>SUM(E2:E18)</f>
-        <v>500000</v>
-      </c>
-      <c r="F19" s="23">
-        <f>SUM(F2:F18)</f>
-        <v>675000</v>
-      </c>
-      <c r="G19" s="24">
-        <f>D19+E19-F19</f>
-        <v>2268000</v>
-      </c>
-      <c r="H19" s="22"/>
+      <c r="E25" s="23">
+        <f>SUM(E2:E24)</f>
+        <v>1930000</v>
+      </c>
+      <c r="F25" s="23">
+        <f>SUM(F2:F24)</f>
+        <v>710000</v>
+      </c>
+      <c r="G25" s="24">
+        <f>D25+E25-F25</f>
+        <v>3663000</v>
+      </c>
+      <c r="H25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>Đóng tập hồ sơ</t>
+  </si>
+  <si>
+    <t>Đóng lại tập hồ sơ</t>
+  </si>
+  <si>
+    <t>Cước đi động</t>
+  </si>
+  <si>
+    <t>Tiền photo lại giấy tờ + in bài</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2190,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,41 +2565,73 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>43203</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21">
+        <v>289000</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>43203</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="21">
+        <v>20000</v>
+      </c>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>43204</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>20000</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>43206</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21">
+        <v>500000</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
@@ -2605,7 +2646,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -2616,32 +2657,42 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="23">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E25" s="23">
-        <f>SUM(E2:E24)</f>
-        <v>1930000</v>
-      </c>
-      <c r="F25" s="23">
-        <f>SUM(F2:F24)</f>
-        <v>710000</v>
-      </c>
-      <c r="G25" s="24">
-        <f>D25+E25-F25</f>
-        <v>3663000</v>
-      </c>
-      <c r="H25" s="22"/>
+      <c r="E26" s="23">
+        <f>SUM(E2:E25)</f>
+        <v>2430000</v>
+      </c>
+      <c r="F26" s="23">
+        <f>SUM(F2:F25)</f>
+        <v>1039000</v>
+      </c>
+      <c r="G26" s="24">
+        <f>D26+E26-F26</f>
+        <v>3834000</v>
+      </c>
+      <c r="H26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Tiền photo lại giấy tờ + in bài</t>
+  </si>
+  <si>
+    <t>Sửa điều hòa</t>
   </si>
 </sst>
 </file>
@@ -2199,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,19 +2633,27 @@
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>43206</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <v>250000</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
     </row>
@@ -2656,7 +2667,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -2667,32 +2678,42 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="23">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E26" s="23">
-        <f>SUM(E2:E25)</f>
-        <v>2430000</v>
-      </c>
-      <c r="F26" s="23">
-        <f>SUM(F2:F25)</f>
-        <v>1039000</v>
-      </c>
-      <c r="G26" s="24">
-        <f>D26+E26-F26</f>
+      <c r="E27" s="23">
+        <f>SUM(E2:E26)</f>
+        <v>2680000</v>
+      </c>
+      <c r="F27" s="23">
+        <f>SUM(F2:F26)</f>
+        <v>1289000</v>
+      </c>
+      <c r="G27" s="24">
+        <f>D27+E27-F27</f>
         <v>3834000</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>Sửa điều hòa</t>
+  </si>
+  <si>
+    <t>Trương Thị Bích Việt</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC AK10</t>
   </si>
 </sst>
 </file>
@@ -2202,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,14 +2664,24 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>43207</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21">
+        <v>1460000</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
@@ -2677,7 +2693,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -2688,32 +2704,42 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="23">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E27" s="23">
-        <f>SUM(E2:E26)</f>
-        <v>2680000</v>
-      </c>
-      <c r="F27" s="23">
-        <f>SUM(F2:F26)</f>
+      <c r="E28" s="23">
+        <f>SUM(E2:E27)</f>
+        <v>4140000</v>
+      </c>
+      <c r="F28" s="23">
+        <f>SUM(F2:F27)</f>
         <v>1289000</v>
       </c>
-      <c r="G27" s="24">
-        <f>D27+E27-F27</f>
-        <v>3834000</v>
-      </c>
-      <c r="H27" s="22"/>
+      <c r="G28" s="24">
+        <f>D28+E28-F28</f>
+        <v>5294000</v>
+      </c>
+      <c r="H28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>Học phí TOEIC AK10</t>
+  </si>
+  <si>
+    <t>Thay mực máy in</t>
+  </si>
+  <si>
+    <t>In phiếu học phí Toeic</t>
   </si>
 </sst>
 </file>
@@ -2208,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,26 +2690,42 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>43208</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21">
+        <v>140000</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>43208</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21">
+        <v>20000</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -2713,33 +2735,53 @@
       <c r="G27" s="21"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="23">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E28" s="23">
-        <f>SUM(E2:E27)</f>
+      <c r="E30" s="23">
+        <f>SUM(E2:E29)</f>
         <v>4140000</v>
       </c>
-      <c r="F28" s="23">
-        <f>SUM(F2:F27)</f>
-        <v>1289000</v>
-      </c>
-      <c r="G28" s="24">
-        <f>D28+E28-F28</f>
-        <v>5294000</v>
-      </c>
-      <c r="H28" s="22"/>
+      <c r="F30" s="23">
+        <f>SUM(F2:F29)</f>
+        <v>1449000</v>
+      </c>
+      <c r="G30" s="24">
+        <f>D30+E30-F30</f>
+        <v>5134000</v>
+      </c>
+      <c r="H30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>In phiếu học phí Toeic</t>
+  </si>
+  <si>
+    <t>Tiền nước uống</t>
+  </si>
+  <si>
+    <t>(Thiếu 200K, Trần Thị Minh Châu)</t>
   </si>
 </sst>
 </file>
@@ -2214,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,26 +2732,44 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>43210</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>38000</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>43210</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="21">
+        <v>1650000</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
@@ -2755,33 +2779,53 @@
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="23">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E30" s="23">
-        <f>SUM(E2:E29)</f>
-        <v>4140000</v>
-      </c>
-      <c r="F30" s="23">
-        <f>SUM(F2:F29)</f>
-        <v>1449000</v>
-      </c>
-      <c r="G30" s="24">
-        <f>D30+E30-F30</f>
-        <v>5134000</v>
-      </c>
-      <c r="H30" s="22"/>
+      <c r="E32" s="23">
+        <f>SUM(E2:E31)</f>
+        <v>5790000</v>
+      </c>
+      <c r="F32" s="23">
+        <f>SUM(F2:F31)</f>
+        <v>1487000</v>
+      </c>
+      <c r="G32" s="24">
+        <f>D32+E32-F32</f>
+        <v>6746000</v>
+      </c>
+      <c r="H32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>(Thiếu 200K, Trần Thị Minh Châu)</t>
+  </si>
+  <si>
+    <t>Đóng đinh lại 1 tập hồ sơ</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,12 +2773,20 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>43213</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21">
+        <v>2000</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
     </row>
@@ -2815,11 +2826,11 @@
       </c>
       <c r="F32" s="23">
         <f>SUM(F2:F31)</f>
-        <v>1487000</v>
+        <v>1489000</v>
       </c>
       <c r="G32" s="24">
         <f>D32+E32-F32</f>
-        <v>6746000</v>
+        <v>6744000</v>
       </c>
       <c r="H32" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>Đóng đinh lại 1 tập hồ sơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công chứng </t>
+  </si>
+  <si>
+    <t>in thêm giấy tờ hồ sơ</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,52 +2797,100 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19">
+        <v>43216</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="21">
+        <v>12000</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19">
+        <v>43216</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>10000</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="23">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E32" s="23">
-        <f>SUM(E2:E31)</f>
+      <c r="E35" s="23">
+        <f>SUM(E2:E34)</f>
         <v>5790000</v>
       </c>
-      <c r="F32" s="23">
-        <f>SUM(F2:F31)</f>
-        <v>1489000</v>
-      </c>
-      <c r="G32" s="24">
-        <f>D32+E32-F32</f>
-        <v>6744000</v>
-      </c>
-      <c r="H32" s="22"/>
+      <c r="F35" s="23">
+        <f>SUM(F2:F34)</f>
+        <v>1511000</v>
+      </c>
+      <c r="G35" s="24">
+        <f>D35+E35-F35</f>
+        <v>6722000</v>
+      </c>
+      <c r="H35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -1718,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,11 +2836,17 @@
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="19">
+        <v>43217</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21">
+        <v>20000</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="20"/>
     </row>
@@ -2880,11 +2886,11 @@
       </c>
       <c r="F35" s="23">
         <f>SUM(F2:F34)</f>
-        <v>1511000</v>
+        <v>1531000</v>
       </c>
       <c r="G35" s="24">
         <f>D35+E35-F35</f>
-        <v>6722000</v>
+        <v>6702000</v>
       </c>
       <c r="H35" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>in thêm giấy tờ hồ sơ</t>
+  </si>
+  <si>
+    <t>Làm bìa, đóng tập hồ sơ thành lập</t>
   </si>
 </sst>
 </file>
@@ -2229,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,16 +2854,24 @@
       <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19">
+        <v>43217</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="F33" s="21">
+        <v>20000</v>
+      </c>
       <c r="G33" s="21"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -2871,32 +2882,42 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="23">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
       </c>
-      <c r="E35" s="23">
-        <f>SUM(E2:E34)</f>
+      <c r="E36" s="23">
+        <f>SUM(E2:E35)</f>
         <v>5790000</v>
       </c>
-      <c r="F35" s="23">
-        <f>SUM(F2:F34)</f>
-        <v>1531000</v>
-      </c>
-      <c r="G35" s="24">
-        <f>D35+E35-F35</f>
-        <v>6702000</v>
-      </c>
-      <c r="H35" s="22"/>
+      <c r="F36" s="23">
+        <f>SUM(F2:F35)</f>
+        <v>1551000</v>
+      </c>
+      <c r="G36" s="24">
+        <f>D36+E36-F36</f>
+        <v>6682000</v>
+      </c>
+      <c r="H36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Thang 2 - 2018" sheetId="16" r:id="rId3"/>
     <sheet name="Thang 3 - 2018" sheetId="18" r:id="rId4"/>
     <sheet name="Thang 4" sheetId="19" r:id="rId5"/>
+    <sheet name="Thang 5" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +383,9 @@
   </si>
   <si>
     <t>Làm bìa, đóng tập hồ sơ thành lập</t>
+  </si>
+  <si>
+    <t>Nhận quỹ</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2881,9 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="21">
+        <v>248000</v>
+      </c>
       <c r="G34" s="21"/>
       <c r="H34" s="20"/>
     </row>
@@ -2907,11 +2913,11 @@
       </c>
       <c r="F36" s="23">
         <f>SUM(F2:F35)</f>
-        <v>1551000</v>
+        <v>1799000</v>
       </c>
       <c r="G36" s="24">
         <f>D36+E36-F36</f>
-        <v>6682000</v>
+        <v>6434000</v>
       </c>
       <c r="H36" s="22"/>
     </row>
@@ -2921,4 +2927,201 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 3 - 2018'!G26</f>
+        <v>2443000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>2443000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>510000</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43193</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>43195</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>43195</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="23">
+        <f>SUM(D2:D5)</f>
+        <v>2443000</v>
+      </c>
+      <c r="E10" s="23">
+        <f>SUM(E2:E9)</f>
+        <v>510000</v>
+      </c>
+      <c r="F10" s="23">
+        <f>SUM(F2:F9)</f>
+        <v>248000</v>
+      </c>
+      <c r="G10" s="24">
+        <f>D10+E10-F10</f>
+        <v>2705000</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>Nhận quỹ</t>
+  </si>
+  <si>
+    <t>Học phí Toeic A</t>
+  </si>
+  <si>
+    <t>Lê Văn Đức</t>
   </si>
 </sst>
 </file>
@@ -2931,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,29 +3042,35 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>43193</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>1460000</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
-        <v>43195</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
+      <c r="B6" s="9">
+        <v>43193</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
@@ -3075,8 +3087,12 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>43195</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
@@ -3084,7 +3100,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -3095,32 +3111,42 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="23">
-        <f>SUM(D2:D5)</f>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="23">
+        <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E10" s="23">
-        <f>SUM(E2:E9)</f>
-        <v>510000</v>
-      </c>
-      <c r="F10" s="23">
-        <f>SUM(F2:F9)</f>
+      <c r="E11" s="23">
+        <f>SUM(E2:E10)</f>
+        <v>1970000</v>
+      </c>
+      <c r="F11" s="23">
+        <f>SUM(F2:F10)</f>
         <v>248000</v>
       </c>
-      <c r="G10" s="24">
-        <f>D10+E10-F10</f>
-        <v>2705000</v>
-      </c>
-      <c r="H10" s="22"/>
+      <c r="G11" s="24">
+        <f>D11+E11-F11</f>
+        <v>4165000</v>
+      </c>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Lê Văn Đức</t>
+  </si>
+  <si>
+    <t>Mua Standee chân chữ X</t>
   </si>
 </sst>
 </file>
@@ -2940,7 +2943,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,12 +3066,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>43193</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>43222</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>200000</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
@@ -3136,11 +3143,11 @@
       </c>
       <c r="F11" s="23">
         <f>SUM(F2:F10)</f>
-        <v>248000</v>
+        <v>448000</v>
       </c>
       <c r="G11" s="24">
         <f>D11+E11-F11</f>
-        <v>4165000</v>
+        <v>3965000</v>
       </c>
       <c r="H11" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Mua Standee chân chữ X</t>
+  </si>
+  <si>
+    <t>In standee PP + Voucher học bổng</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2946,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,12 +3087,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="19">
-        <v>43195</v>
-      </c>
-      <c r="C7" s="20"/>
+        <v>43223</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>160000</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
     </row>
@@ -3143,11 +3150,11 @@
       </c>
       <c r="F11" s="23">
         <f>SUM(F2:F10)</f>
-        <v>448000</v>
+        <v>608000</v>
       </c>
       <c r="G11" s="24">
         <f>D11+E11-F11</f>
-        <v>3965000</v>
+        <v>3805000</v>
       </c>
       <c r="H11" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -2943,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,27 +3105,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="19">
-        <v>43195</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>43224</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>15000</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>43227</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>15000</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -3134,33 +3148,73 @@
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="23">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E11" s="23">
-        <f>SUM(E2:E10)</f>
+      <c r="E15" s="23">
+        <f>SUM(E2:E14)</f>
         <v>1970000</v>
       </c>
-      <c r="F11" s="23">
-        <f>SUM(F2:F10)</f>
-        <v>608000</v>
-      </c>
-      <c r="G11" s="24">
-        <f>D11+E11-F11</f>
-        <v>3805000</v>
-      </c>
-      <c r="H11" s="22"/>
+      <c r="F15" s="23">
+        <f>SUM(F2:F14)</f>
+        <v>638000</v>
+      </c>
+      <c r="G15" s="24">
+        <f>D15+E15-F15</f>
+        <v>3775000</v>
+      </c>
+      <c r="H15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3113,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
@@ -3131,7 +3131,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,11 +3140,17 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>28000</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
@@ -3204,11 +3210,11 @@
       </c>
       <c r="F15" s="23">
         <f>SUM(F2:F14)</f>
-        <v>638000</v>
+        <v>666000</v>
       </c>
       <c r="G15" s="24">
         <f>D15+E15-F15</f>
-        <v>3775000</v>
+        <v>3747000</v>
       </c>
       <c r="H15" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,12 +3155,20 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>253000</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
     </row>
@@ -3210,11 +3218,11 @@
       </c>
       <c r="F15" s="23">
         <f>SUM(F2:F14)</f>
-        <v>666000</v>
+        <v>919000</v>
       </c>
       <c r="G15" s="24">
         <f>D15+E15-F15</f>
-        <v>3747000</v>
+        <v>3494000</v>
       </c>
       <c r="H15" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>In standee PP + Voucher học bổng</t>
+  </si>
+  <si>
+    <t>Photo Answersheet</t>
+  </si>
+  <si>
+    <t>100 tờ</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -2943,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,14 +3179,24 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>43231</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>22000</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -3192,7 +3208,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -3202,33 +3218,53 @@
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="23">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E15" s="23">
-        <f>SUM(E2:E14)</f>
+      <c r="E17" s="23">
+        <f>SUM(E2:E16)</f>
         <v>1970000</v>
       </c>
-      <c r="F15" s="23">
-        <f>SUM(F2:F14)</f>
-        <v>919000</v>
-      </c>
-      <c r="G15" s="24">
-        <f>D15+E15-F15</f>
-        <v>3494000</v>
-      </c>
-      <c r="H15" s="22"/>
+      <c r="F17" s="23">
+        <f>SUM(F2:F16)</f>
+        <v>941000</v>
+      </c>
+      <c r="G17" s="24">
+        <f>D17+E17-F17</f>
+        <v>3472000</v>
+      </c>
+      <c r="H17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,11 +3199,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>43232</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21">
+        <v>500000</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="20"/>
@@ -3250,7 +3258,7 @@
       </c>
       <c r="E17" s="23">
         <f>SUM(E2:E16)</f>
-        <v>1970000</v>
+        <v>2470000</v>
       </c>
       <c r="F17" s="23">
         <f>SUM(F2:F16)</f>
@@ -3258,7 +3266,7 @@
       </c>
       <c r="G17" s="24">
         <f>D17+E17-F17</f>
-        <v>3472000</v>
+        <v>3972000</v>
       </c>
       <c r="H17" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>100 tờ</t>
+  </si>
+  <si>
+    <t>photo + in bản nghị quyết , quyết định</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2955,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,12 +3220,20 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>43242</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21">
+        <v>68000</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
@@ -3262,11 +3273,11 @@
       </c>
       <c r="F17" s="23">
         <f>SUM(F2:F16)</f>
-        <v>941000</v>
+        <v>1009000</v>
       </c>
       <c r="G17" s="24">
         <f>D17+E17-F17</f>
-        <v>3972000</v>
+        <v>3904000</v>
       </c>
       <c r="H17" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>photo + in bản nghị quyết , quyết định</t>
+  </si>
+  <si>
+    <t>Nhận thiền photo sách</t>
+  </si>
+  <si>
+    <t>Ứng tiền Photo sách</t>
+  </si>
+  <si>
+    <t>6 quyển (53000/quyển)</t>
+  </si>
+  <si>
+    <t>55000/quyển</t>
   </si>
 </sst>
 </file>
@@ -2952,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,66 +3236,116 @@
         <v>13</v>
       </c>
       <c r="B14" s="19">
-        <v>43242</v>
+        <v>43238</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21">
-        <v>68000</v>
+        <v>318000</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>43241</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21">
+        <v>330000</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>43242</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21">
+        <v>68000</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="23">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E17" s="23">
-        <f>SUM(E2:E16)</f>
-        <v>2470000</v>
-      </c>
-      <c r="F17" s="23">
-        <f>SUM(F2:F16)</f>
-        <v>1009000</v>
-      </c>
-      <c r="G17" s="24">
-        <f>D17+E17-F17</f>
-        <v>3904000</v>
-      </c>
-      <c r="H17" s="22"/>
+      <c r="E20" s="23">
+        <f>SUM(E2:E19)</f>
+        <v>2800000</v>
+      </c>
+      <c r="F20" s="23">
+        <f>SUM(F2:F19)</f>
+        <v>1327000</v>
+      </c>
+      <c r="G20" s="24">
+        <f>D20+E20-F20</f>
+        <v>3916000</v>
+      </c>
+      <c r="H20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>55000/quyển</t>
+  </si>
+  <si>
+    <t>Tấm biển bán nhà</t>
+  </si>
+  <si>
+    <t>2 tấm</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +2973,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,14 +3296,24 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43249</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>40000</v>
+      </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -3335,11 +3351,11 @@
       </c>
       <c r="F20" s="23">
         <f>SUM(F2:F19)</f>
-        <v>1327000</v>
+        <v>1367000</v>
       </c>
       <c r="G20" s="24">
         <f>D20+E20-F20</f>
-        <v>3916000</v>
+        <v>3876000</v>
       </c>
       <c r="H20" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,16 +3316,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>43250</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>20000</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -3336,32 +3344,42 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="23">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E20" s="23">
-        <f>SUM(E2:E19)</f>
+      <c r="E21" s="23">
+        <f>SUM(E2:E20)</f>
         <v>2800000</v>
       </c>
-      <c r="F20" s="23">
-        <f>SUM(F2:F19)</f>
-        <v>1367000</v>
-      </c>
-      <c r="G20" s="24">
-        <f>D20+E20-F20</f>
-        <v>3876000</v>
-      </c>
-      <c r="H20" s="22"/>
+      <c r="F21" s="23">
+        <f>SUM(F2:F20)</f>
+        <v>1387000</v>
+      </c>
+      <c r="G21" s="24">
+        <f>D21+E21-F21</f>
+        <v>3856000</v>
+      </c>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,9 +2920,7 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="21">
-        <v>248000</v>
-      </c>
+      <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="20"/>
     </row>
@@ -2952,11 +2950,11 @@
       </c>
       <c r="F36" s="23">
         <f>SUM(F2:F35)</f>
-        <v>1799000</v>
+        <v>1551000</v>
       </c>
       <c r="G36" s="24">
         <f>D36+E36-F36</f>
-        <v>6434000</v>
+        <v>6682000</v>
       </c>
       <c r="H36" s="22"/>
     </row>
@@ -2973,7 +2971,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Thang 3 - 2018" sheetId="18" r:id="rId4"/>
     <sheet name="Thang 4" sheetId="19" r:id="rId5"/>
     <sheet name="Thang 5" sheetId="21" r:id="rId6"/>
+    <sheet name="Thang 6" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -2970,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
@@ -3381,4 +3382,353 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43252</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 3 - 2018'!G26</f>
+        <v>2443000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>2443000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43257</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43258</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43253</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43222</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>43223</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>43224</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>43227</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>43231</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>43232</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>43238</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>43241</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>43242</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43249</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="23">
+        <f>SUM(D2:D6)</f>
+        <v>2443000</v>
+      </c>
+      <c r="E21" s="23">
+        <f>SUM(E2:E20)</f>
+        <v>500000</v>
+      </c>
+      <c r="F21" s="23">
+        <f>SUM(F2:F20)</f>
+        <v>248000</v>
+      </c>
+      <c r="G21" s="24">
+        <f>D21+E21-F21</f>
+        <v>2695000</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>2 tấm</t>
+  </si>
+  <si>
+    <t>Photo part 5,6 lớp BK7</t>
   </si>
 </sst>
 </file>
@@ -3389,7 +3392,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,12 +3495,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>43253</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>43258</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>8000</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
@@ -3506,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>43222</v>
+        <v>43253</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3519,8 +3526,8 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>43223</v>
+      <c r="B7" s="9">
+        <v>43253</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -3533,8 +3540,8 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
-        <v>43224</v>
+      <c r="B8" s="9">
+        <v>43253</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3547,8 +3554,8 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
-        <v>43227</v>
+      <c r="B9" s="9">
+        <v>43253</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -3561,8 +3568,8 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
-        <v>43230</v>
+      <c r="B10" s="9">
+        <v>43253</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -3575,8 +3582,8 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
-        <v>43230</v>
+      <c r="B11" s="9">
+        <v>43253</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -3589,8 +3596,8 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
-        <v>43231</v>
+      <c r="B12" s="9">
+        <v>43253</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -3603,8 +3610,8 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>43232</v>
+      <c r="B13" s="9">
+        <v>43253</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -3617,8 +3624,8 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
-        <v>43238</v>
+      <c r="B14" s="9">
+        <v>43253</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -3631,8 +3638,8 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
-        <v>43241</v>
+      <c r="B15" s="9">
+        <v>43253</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -3645,8 +3652,8 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
-        <v>43242</v>
+      <c r="B16" s="9">
+        <v>43253</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -3659,8 +3666,8 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
-        <v>43249</v>
+      <c r="B17" s="9">
+        <v>43253</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -3717,11 +3724,11 @@
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
-        <v>248000</v>
+        <v>256000</v>
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2695000</v>
+        <v>2687000</v>
       </c>
       <c r="H21" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -3392,7 +3392,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,12 +3513,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>43260</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>45000</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
@@ -3724,11 +3728,11 @@
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
-        <v>256000</v>
+        <v>301000</v>
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2687000</v>
+        <v>2642000</v>
       </c>
       <c r="H21" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -3392,7 +3392,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,12 +3531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C7" s="20"/>
+        <v>43263</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>321000</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
     </row>
@@ -3728,11 +3732,11 @@
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
-        <v>301000</v>
+        <v>622000</v>
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2642000</v>
+        <v>2321000</v>
       </c>
       <c r="H21" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Photo part 5,6 lớp BK7</t>
+  </si>
+  <si>
+    <t>Bút viết bảng</t>
   </si>
 </sst>
 </file>
@@ -3549,12 +3552,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>43266</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>35000</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20"/>
     </row>
@@ -3732,11 +3739,11 @@
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
-        <v>622000</v>
+        <v>657000</v>
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2321000</v>
+        <v>2286000</v>
       </c>
       <c r="H21" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Bút viết bảng</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 34,000đ</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +494,15 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,7 +645,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -693,6 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -3395,7 +3408,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,14 +3583,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C9" s="20"/>
+        <v>43267</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21">
+        <v>500000</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="31" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
@@ -3735,7 +3754,7 @@
       </c>
       <c r="E21" s="23">
         <f>SUM(E2:E20)</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
@@ -3743,7 +3762,7 @@
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2286000</v>
+        <v>2786000</v>
       </c>
       <c r="H21" s="22"/>
     </row>
@@ -3752,5 +3771,6 @@
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -435,6 +435,27 @@
   </si>
   <si>
     <t>Quỹ còn: 34,000đ</t>
+  </si>
+  <si>
+    <t>Photo test cuối khóa AK9</t>
+  </si>
+  <si>
+    <t>In màu bảng điểm toeic</t>
+  </si>
+  <si>
+    <t>Học phí Toeic B</t>
+  </si>
+  <si>
+    <t>Minh Nhật + Khả Tú</t>
+  </si>
+  <si>
+    <t>Học Phí Toeic A</t>
+  </si>
+  <si>
+    <t>Thanh Quang + Thanh Hùng</t>
+  </si>
+  <si>
+    <t>Kiều Oanh + Đông Trúc</t>
   </si>
 </sst>
 </file>
@@ -696,6 +717,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,7 +727,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -1598,11 +1619,11 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="23" t="e">
         <f>SUM(D2:D12)</f>
         <v>#REF!</v>
@@ -1749,11 +1770,11 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="23" t="e">
         <f>SUM(D2:D5)</f>
         <v>#REF!</v>
@@ -2261,11 +2282,11 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
@@ -2955,11 +2976,11 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
@@ -3372,11 +3393,11 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
@@ -3594,7 +3615,7 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3603,12 +3624,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C10" s="20"/>
+        <v>43269</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>19000</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
@@ -3617,12 +3642,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C11" s="20"/>
+        <v>43269</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>4000</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
     </row>
@@ -3631,12 +3660,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>43270</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>11000</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
     </row>
@@ -3645,42 +3678,60 @@
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>43270</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21">
+        <v>2400000</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>43270</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>43271</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21">
+        <v>2400000</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -3743,26 +3794,26 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
       <c r="E21" s="23">
         <f>SUM(E2:E20)</f>
-        <v>1000000</v>
+        <v>7900000</v>
       </c>
       <c r="F21" s="23">
         <f>SUM(F2:F20)</f>
-        <v>657000</v>
+        <v>691000</v>
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>2786000</v>
+        <v>9652000</v>
       </c>
       <c r="H21" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -456,6 +456,24 @@
   </si>
   <si>
     <t>Kiều Oanh + Đông Trúc</t>
+  </si>
+  <si>
+    <t>6//2018</t>
+  </si>
+  <si>
+    <t>Tiền đồng hồ</t>
+  </si>
+  <si>
+    <t>Tiền Cá hồi</t>
+  </si>
+  <si>
+    <t>Mua pin AAA</t>
+  </si>
+  <si>
+    <t>Tiền cọc bánh Patiso</t>
+  </si>
+  <si>
+    <t>Lệ Quỳnh + Hồng Minh</t>
   </si>
 </sst>
 </file>
@@ -3426,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,13 +3755,17 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="B16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21">
+        <v>151000</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
     </row>
@@ -3751,13 +3773,17 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>43253</v>
-      </c>
-      <c r="C17" s="20"/>
+      <c r="B17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>129000</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
     </row>
@@ -3765,61 +3791,115 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19">
+        <v>43279</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>60000</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>43281</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21">
+        <v>32000</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>43281</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="H20" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="23">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23">
         <f>SUM(D2:D6)</f>
         <v>2443000</v>
       </c>
-      <c r="E21" s="23">
-        <f>SUM(E2:E20)</f>
-        <v>7900000</v>
-      </c>
-      <c r="F21" s="23">
-        <f>SUM(F2:F20)</f>
-        <v>691000</v>
-      </c>
-      <c r="G21" s="24">
-        <f>D21+E21-F21</f>
-        <v>9652000</v>
-      </c>
-      <c r="H21" s="22"/>
+      <c r="E24" s="23">
+        <f>SUM(E2:E23)</f>
+        <v>10000000</v>
+      </c>
+      <c r="F24" s="23">
+        <f>SUM(F2:F23)</f>
+        <v>1063000</v>
+      </c>
+      <c r="G24" s="24">
+        <f>D24+E24-F24</f>
+        <v>11380000</v>
+      </c>
+      <c r="H24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>Lệ Quỳnh + Hồng Minh</t>
+  </si>
+  <si>
+    <t>Khánh Vân + Đăng Phước</t>
   </si>
 </sst>
 </file>
@@ -3446,8 +3449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,14 +3847,24 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>43281</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -3885,7 +3898,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>10000000</v>
+        <v>12100000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -3893,7 +3906,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>11380000</v>
+        <v>13480000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Thang 4" sheetId="19" r:id="rId5"/>
     <sheet name="Thang 5" sheetId="21" r:id="rId6"/>
     <sheet name="Thang 6" sheetId="22" r:id="rId7"/>
+    <sheet name="Thang 7" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>STT</t>
   </si>
@@ -477,6 +478,12 @@
   </si>
   <si>
     <t>Khánh Vân + Đăng Phước</t>
+  </si>
+  <si>
+    <t>Học Phí Toeic A (giảm 20%)</t>
+  </si>
+  <si>
+    <t>Học Phí Toeic B  (giảm 20%)</t>
   </si>
 </sst>
 </file>
@@ -2339,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3040,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,14 +3091,14 @@
         <v>17</v>
       </c>
       <c r="D2" s="15">
-        <f>'Thang 3 - 2018'!G26</f>
-        <v>2443000</v>
+        <f>'Thang 4'!G36</f>
+        <v>6682000</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15">
         <f>D2+E2-F2</f>
-        <v>2443000</v>
+        <v>6682000</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -3421,7 +3428,7 @@
       <c r="C21" s="31"/>
       <c r="D21" s="23">
         <f>SUM(D2:D6)</f>
-        <v>2443000</v>
+        <v>6682000</v>
       </c>
       <c r="E21" s="23">
         <f>SUM(E2:E20)</f>
@@ -3433,7 +3440,7 @@
       </c>
       <c r="G21" s="24">
         <f>D21+E21-F21</f>
-        <v>3856000</v>
+        <v>8095000</v>
       </c>
       <c r="H21" s="22"/>
     </row>
@@ -3449,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,14 +3508,14 @@
         <v>17</v>
       </c>
       <c r="D2" s="15">
-        <f>'Thang 3 - 2018'!G26</f>
-        <v>2443000</v>
+        <f>'Thang 5'!G21</f>
+        <v>8095000</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15">
         <f>D2+E2-F2</f>
-        <v>2443000</v>
+        <v>8095000</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -3894,7 +3901,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="23">
         <f>SUM(D2:D6)</f>
-        <v>2443000</v>
+        <v>8095000</v>
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
@@ -3906,7 +3913,400 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>13480000</v>
+        <v>19132000</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43282</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 6'!G24</f>
+        <v>19132000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>19132000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43283</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>1680000</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
+        <v>1920000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43283</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>11000</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43284</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43293</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43296</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43297</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23">
+        <f>SUM(D2:D6)</f>
+        <v>19132000</v>
+      </c>
+      <c r="E24" s="23">
+        <f>SUM(E2:E23)</f>
+        <v>3600000</v>
+      </c>
+      <c r="F24" s="23">
+        <f>SUM(F2:F23)</f>
+        <v>259000</v>
+      </c>
+      <c r="G24" s="24">
+        <f>D24+E24-F24</f>
+        <v>22473000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
   <si>
     <t>STT</t>
   </si>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,7 +3931,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,12 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>43293</v>
-      </c>
-      <c r="C7" s="20"/>
+        <v>43284</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>20000</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
     </row>
@@ -4302,11 +4306,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>259000</v>
+        <v>279000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>22473000</v>
+        <v>22453000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Học Phí Toeic B  (giảm 20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Học Phí Toeic A </t>
+  </si>
+  <si>
+    <t>Minh Trang + Thúy Hằng</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3937,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,14 +4093,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>43296</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>43285</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
@@ -4302,7 +4314,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>3600000</v>
+        <v>5700000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -4310,7 +4322,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>22453000</v>
+        <v>24553000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="155">
   <si>
     <t>STT</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Minh Trang + Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Quỹ còn: - 151,000</t>
+  </si>
+  <si>
+    <t>Ngọc Hân + Ly Na</t>
   </si>
 </sst>
 </file>
@@ -3462,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,7 +3943,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,19 +4099,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>43285</v>
+        <v>43284</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21">
-        <v>2100000</v>
+        <v>500000</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="20" t="s">
-        <v>152</v>
+      <c r="H8" s="28" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4113,28 +4119,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C9" s="20"/>
+        <v>43285</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="20" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C10" s="20"/>
+        <v>43287</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
@@ -4314,7 +4332,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>5700000</v>
+        <v>8300000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -4322,7 +4340,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>24553000</v>
+        <v>27153000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
   <si>
     <t>STT</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>Ngọc Hân + Ly Na</t>
+  </si>
+  <si>
+    <t>Huyền Trang + Như Ý + Quỳnh Hương</t>
+  </si>
+  <si>
+    <t>Học Phí Toeic A x 3 (50%)</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +3949,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,9 +3958,9 @@
     <col min="3" max="3" width="47.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4161,12 +4167,18 @@
       <c r="B11" s="9">
         <v>43297</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21">
+        <v>3150000</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
@@ -4332,7 +4344,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>8300000</v>
+        <v>11450000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -4340,7 +4352,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>27153000</v>
+        <v>30303000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>STT</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Học Phí Toeic A x 3 (50%)</t>
+  </si>
+  <si>
+    <t>Trà Giang + Như Quỳnh</t>
   </si>
 </sst>
 </file>
@@ -3949,7 +3952,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>43297</v>
+        <v>43287</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>156</v>
@@ -4185,14 +4188,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>43288</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>2100000</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
@@ -4344,7 +4353,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>11450000</v>
+        <v>13550000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -4352,7 +4361,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>30303000</v>
+        <v>32403000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <t>STT</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Trà Giang + Như Quỳnh</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Sung</t>
   </si>
 </sst>
 </file>
@@ -3951,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,14 +4211,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>43290</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21">
+        <v>1680000</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
@@ -4353,7 +4362,7 @@
       </c>
       <c r="E24" s="23">
         <f>SUM(E2:E23)</f>
-        <v>13550000</v>
+        <v>15230000</v>
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
@@ -4361,7 +4370,7 @@
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>32403000</v>
+        <v>34083000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>STT</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Trần Ngọc Sung</t>
+  </si>
+  <si>
+    <t>Tiện thoại cố định</t>
   </si>
 </sst>
 </file>
@@ -3954,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,12 +4234,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>43291</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21">
+        <v>33000</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
@@ -4366,11 +4373,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>279000</v>
+        <v>312000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>34083000</v>
+        <v>34050000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="161">
   <si>
     <t>STT</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Tiện thoại cố định</t>
+  </si>
+  <si>
+    <t>Cước di động</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3070,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,7 +3487,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,12 +4255,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>43292</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>215000</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
@@ -4373,11 +4380,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>312000</v>
+        <v>527000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>34050000</v>
+        <v>33835000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
   <si>
     <t>STT</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>Cước di động</t>
+  </si>
+  <si>
+    <t>Photo các chương trình của trung tâm</t>
   </si>
 </sst>
 </file>
@@ -3961,7 +3964,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,12 +4276,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C16" s="20"/>
+        <v>43301</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21">
+        <v>14000</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
     </row>
@@ -4380,11 +4387,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>527000</v>
+        <v>541000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>33835000</v>
+        <v>33821000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="162">
   <si>
     <t>STT</t>
   </si>
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +3964,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,7 +4284,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
@@ -4294,12 +4294,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>43297</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>43305</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>11000</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
     </row>
@@ -4387,11 +4391,11 @@
       </c>
       <c r="F24" s="23">
         <f>SUM(F2:F23)</f>
-        <v>541000</v>
+        <v>553000</v>
       </c>
       <c r="G24" s="24">
         <f>D24+E24-F24</f>
-        <v>33821000</v>
+        <v>33809000</v>
       </c>
       <c r="H24" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
   <si>
     <t>STT</t>
   </si>
@@ -517,6 +517,36 @@
   </si>
   <si>
     <t>Photo các chương trình của trung tâm</t>
+  </si>
+  <si>
+    <t>Tiền gia hạn tên miền anhngusuccesse.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng cáo facebook </t>
+  </si>
+  <si>
+    <t>Học phí Toeic A (giảm 20%)</t>
+  </si>
+  <si>
+    <t>Học phí Toiec B (giảm 20%)</t>
+  </si>
+  <si>
+    <t>Trần Minh Châu</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Bản</t>
+  </si>
+  <si>
+    <t>Võ Thế Anh Nhi</t>
+  </si>
+  <si>
+    <t>Photo sách</t>
+  </si>
+  <si>
+    <t>Tiền thu sách photo</t>
+  </si>
+  <si>
+    <t>Hoàng Trịnh Như</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3961,10 +3991,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,7 +4314,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20"/>
@@ -4294,15 +4324,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>43305</v>
+        <v>43301</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>11000</v>
+        <v>1116000</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -4311,97 +4341,221 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="9">
+        <v>43302</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21">
+        <v>1920000</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="9">
+        <v>43302</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21">
+        <v>1920000</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="9">
+        <v>43304</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21">
+        <v>1680000</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="9">
+        <v>43305</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>11000</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>43305</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="21">
+        <v>216000</v>
+      </c>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>43305</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <v>4000000</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>43305</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
+        <v>1110000</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>43305</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21">
+        <v>1920000</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="23">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="23">
         <f>SUM(D2:D6)</f>
         <v>19132000</v>
       </c>
-      <c r="E24" s="23">
-        <f>SUM(E2:E23)</f>
-        <v>15230000</v>
-      </c>
-      <c r="F24" s="23">
-        <f>SUM(F2:F23)</f>
-        <v>553000</v>
-      </c>
-      <c r="G24" s="24">
-        <f>D24+E24-F24</f>
-        <v>33809000</v>
-      </c>
-      <c r="H24" s="22"/>
+      <c r="E30" s="23">
+        <f>SUM(E2:E29)</f>
+        <v>23780000</v>
+      </c>
+      <c r="F30" s="23">
+        <f>SUM(F2:F29)</f>
+        <v>5884000</v>
+      </c>
+      <c r="G30" s="24">
+        <f>D30+E30-F30</f>
+        <v>37028000</v>
+      </c>
+      <c r="H30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
   <si>
     <t>STT</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Hoàng Trịnh Như</t>
+  </si>
+  <si>
+    <t>Thanh Thủy</t>
   </si>
 </sst>
 </file>
@@ -3993,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,14 +4493,24 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>43306</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="21">
+        <v>1920000</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -4541,7 +4554,7 @@
       </c>
       <c r="E30" s="23">
         <f>SUM(E2:E29)</f>
-        <v>23780000</v>
+        <v>25700000</v>
       </c>
       <c r="F30" s="23">
         <f>SUM(F2:F29)</f>
@@ -4549,7 +4562,7 @@
       </c>
       <c r="G30" s="24">
         <f>D30+E30-F30</f>
-        <v>37028000</v>
+        <v>38948000</v>
       </c>
       <c r="H30" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
   <si>
     <t>STT</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Thảo Uyên</t>
   </si>
 </sst>
 </file>
@@ -3996,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,7 +4338,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>1116000</v>
+        <v>1222000</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -4466,7 +4469,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21">
-        <v>1110000</v>
+        <v>1290000</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -4513,14 +4516,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>43309</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="21">
+        <v>1920000</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
@@ -4554,15 +4567,15 @@
       </c>
       <c r="E30" s="23">
         <f>SUM(E2:E29)</f>
-        <v>25700000</v>
+        <v>27800000</v>
       </c>
       <c r="F30" s="23">
         <f>SUM(F2:F29)</f>
-        <v>5884000</v>
+        <v>5990000</v>
       </c>
       <c r="G30" s="24">
         <f>D30+E30-F30</f>
-        <v>38948000</v>
+        <v>40942000</v>
       </c>
       <c r="H30" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
   <si>
     <t>STT</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Thảo Uyên</t>
+  </si>
+  <si>
+    <t>Photo giấy tờ</t>
   </si>
 </sst>
 </file>
@@ -3997,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,52 +4539,96 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>43311</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>8000</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>43312</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21">
+        <v>48000</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19">
+        <v>43312</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="23">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="23">
         <f>SUM(D2:D6)</f>
         <v>19132000</v>
       </c>
-      <c r="E30" s="23">
-        <f>SUM(E2:E29)</f>
+      <c r="E32" s="23">
+        <f>SUM(E2:E31)</f>
         <v>27800000</v>
       </c>
-      <c r="F30" s="23">
-        <f>SUM(F2:F29)</f>
-        <v>5990000</v>
-      </c>
-      <c r="G30" s="24">
-        <f>D30+E30-F30</f>
-        <v>40942000</v>
-      </c>
-      <c r="H30" s="22"/>
+      <c r="F32" s="23">
+        <f>SUM(F2:F31)</f>
+        <v>6066000</v>
+      </c>
+      <c r="G32" s="24">
+        <f>D32+E32-F32</f>
+        <v>40866000</v>
+      </c>
+      <c r="H32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="175">
   <si>
     <t>STT</t>
   </si>
@@ -4000,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,13 +4546,13 @@
         <v>43311</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21">
-        <v>8000</v>
-      </c>
+      <c r="E28" s="21">
+        <v>500000</v>
+      </c>
+      <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="20"/>
     </row>
@@ -4561,15 +4561,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="19">
-        <v>43312</v>
+        <v>43311</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21">
-        <v>48000</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
@@ -4582,53 +4582,71 @@
         <v>43312</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21">
-        <v>20000</v>
+        <v>48000</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19">
+        <v>43312</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>20000</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="23">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="23">
         <f>SUM(D2:D6)</f>
         <v>19132000</v>
       </c>
-      <c r="E32" s="23">
-        <f>SUM(E2:E31)</f>
-        <v>27800000</v>
-      </c>
-      <c r="F32" s="23">
-        <f>SUM(F2:F31)</f>
+      <c r="E33" s="23">
+        <f>SUM(E2:E32)</f>
+        <v>28300000</v>
+      </c>
+      <c r="F33" s="23">
+        <f>SUM(F2:F32)</f>
         <v>6066000</v>
       </c>
-      <c r="G32" s="24">
-        <f>D32+E32-F32</f>
-        <v>40866000</v>
-      </c>
-      <c r="H32" s="22"/>
+      <c r="G33" s="24">
+        <f>D33+E33-F33</f>
+        <v>41366000</v>
+      </c>
+      <c r="H33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
   <si>
     <t>STT</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Photo giấy tờ</t>
+  </si>
+  <si>
+    <t>60k</t>
   </si>
 </sst>
 </file>
@@ -4002,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4479,9 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18">

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Thang 5" sheetId="21" r:id="rId6"/>
     <sheet name="Thang 6" sheetId="22" r:id="rId7"/>
     <sheet name="Thang 7" sheetId="23" r:id="rId8"/>
+    <sheet name="Thang 8" sheetId="24" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
   <si>
     <t>STT</t>
   </si>
@@ -559,6 +560,12 @@
   </si>
   <si>
     <t>60k</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 102,000</t>
+  </si>
+  <si>
+    <t>8//2018</t>
   </si>
 </sst>
 </file>
@@ -4005,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,7 +4351,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>1222000</v>
+        <v>1275000</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -4475,7 +4482,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21">
-        <v>1290000</v>
+        <v>1350000</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -4559,7 +4566,9 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="28" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -4637,15 +4646,15 @@
       </c>
       <c r="E33" s="23">
         <f>SUM(E2:E32)</f>
-        <v>28300000</v>
+        <v>28360000</v>
       </c>
       <c r="F33" s="23">
         <f>SUM(F2:F32)</f>
-        <v>6066000</v>
+        <v>6119000</v>
       </c>
       <c r="G33" s="24">
         <f>D33+E33-F33</f>
-        <v>41366000</v>
+        <v>41373000</v>
       </c>
       <c r="H33" s="22"/>
     </row>
@@ -4656,4 +4665,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43313</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 7'!G33</f>
+        <v>41373000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>41373000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43315</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43316</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43318</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43318</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43319</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43321</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43322</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43323</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43301</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43301</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43302</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43302</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43304</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="23">
+        <f>SUM(D2:D6)</f>
+        <v>41373000</v>
+      </c>
+      <c r="E22" s="23">
+        <f>SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <f>SUM(F2:F21)</f>
+        <v>248000</v>
+      </c>
+      <c r="G22" s="24">
+        <f>D22+E22-F22</f>
+        <v>41125000</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
@@ -562,10 +562,16 @@
     <t>60k</t>
   </si>
   <si>
-    <t>Quỹ còn: 102,000</t>
-  </si>
-  <si>
     <t>8//2018</t>
+  </si>
+  <si>
+    <t>Mua Giấy A4</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 84,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quỹ còn: 440,000 </t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -837,6 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -3538,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4010,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,7 +4358,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>1275000</v>
+        <v>1222000</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="20"/>
@@ -4482,11 +4489,11 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21">
-        <v>1350000</v>
+        <v>1290000</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4567,7 +4574,7 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4596,12 +4603,12 @@
         <v>43312</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21">
-        <v>48000</v>
+        <v>68000</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
@@ -4614,53 +4621,71 @@
         <v>43312</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21">
-        <v>20000</v>
+        <v>48000</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19">
+        <v>43312</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21">
+        <v>20000</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="23">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="23">
         <f>SUM(D2:D6)</f>
         <v>19132000</v>
       </c>
-      <c r="E33" s="23">
-        <f>SUM(E2:E32)</f>
-        <v>28360000</v>
-      </c>
-      <c r="F33" s="23">
-        <f>SUM(F2:F32)</f>
-        <v>6119000</v>
-      </c>
-      <c r="G33" s="24">
-        <f>D33+E33-F33</f>
-        <v>41373000</v>
-      </c>
-      <c r="H33" s="22"/>
+      <c r="E34" s="23">
+        <f>SUM(E2:E33)</f>
+        <v>28300000</v>
+      </c>
+      <c r="F34" s="23">
+        <f>SUM(F2:F33)</f>
+        <v>6134000</v>
+      </c>
+      <c r="G34" s="24">
+        <f>D34+E34-F34</f>
+        <v>41298000</v>
+      </c>
+      <c r="H34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4671,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,16 +4748,18 @@
         <v>17</v>
       </c>
       <c r="D2" s="15">
-        <f>'Thang 7'!G33</f>
-        <v>41373000</v>
+        <f>'Thang 7'!G34</f>
+        <v>41298000</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15">
         <f>D2+E2-F2</f>
-        <v>41373000</v>
-      </c>
-      <c r="H2" s="14"/>
+        <v>41298000</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4757,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -4769,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4783,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4797,7 +4824,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4811,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
@@ -5006,7 +5033,7 @@
       <c r="C22" s="31"/>
       <c r="D22" s="23">
         <f>SUM(D2:D6)</f>
-        <v>41373000</v>
+        <v>41298000</v>
       </c>
       <c r="E22" s="23">
         <f>SUM(E2:E21)</f>
@@ -5018,7 +5045,7 @@
       </c>
       <c r="G22" s="24">
         <f>D22+E22-F22</f>
-        <v>41125000</v>
+        <v>41050000</v>
       </c>
       <c r="H22" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="181">
   <si>
     <t>STT</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quỹ còn: 440,000 </t>
+  </si>
+  <si>
+    <t>Quỹ còn: 192,000</t>
   </si>
 </sst>
 </file>
@@ -834,6 +837,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,7 +847,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -1736,11 +1739,11 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="23" t="e">
         <f>SUM(D2:D12)</f>
         <v>#REF!</v>
@@ -1887,11 +1890,11 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="23" t="e">
         <f>SUM(D2:D5)</f>
         <v>#REF!</v>
@@ -2399,11 +2402,11 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="23">
         <f>SUM(D2:D5)</f>
         <v>0</v>
@@ -3093,11 +3096,11 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="23">
         <f>SUM(D2:D5)</f>
         <v>2443000</v>
@@ -3510,11 +3513,11 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="23">
         <f>SUM(D2:D6)</f>
         <v>6682000</v>
@@ -3983,11 +3986,11 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="23">
         <f>SUM(D2:D6)</f>
         <v>8095000</v>
@@ -4019,7 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4660,11 +4663,11 @@
       <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="23">
         <f>SUM(D2:D6)</f>
         <v>19132000</v>
@@ -4696,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,7 +4760,7 @@
         <f>D2+E2-F2</f>
         <v>41298000</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4786,10 +4789,17 @@
       <c r="B4" s="13" t="s">
         <v>176</v>
       </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15">
+        <v>750000</v>
+      </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="29" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -5026,18 +5036,18 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="23">
         <f>SUM(D2:D6)</f>
         <v>41298000</v>
       </c>
       <c r="E22" s="23">
         <f>SUM(E2:E21)</f>
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="F22" s="23">
         <f>SUM(F2:F21)</f>
@@ -5045,7 +5055,7 @@
       </c>
       <c r="G22" s="24">
         <f>D22+E22-F22</f>
-        <v>41050000</v>
+        <v>41800000</v>
       </c>
       <c r="H22" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="184">
   <si>
     <t>STT</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>Quỹ còn: 192,000</t>
+  </si>
+  <si>
+    <t>Giấy A0</t>
+  </si>
+  <si>
+    <t>Photo Answersheet + Photo lớp AK11</t>
+  </si>
+  <si>
+    <t>In test cuối khóa Lớp BK8</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3132,423 +3141,6 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>43221</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="15">
-        <f>'Thang 4'!G36</f>
-        <v>6682000</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15">
-        <f>D2+E2-F2</f>
-        <v>6682000</v>
-      </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>43222</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="11">
-        <v>248000</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13">
-        <v>43222</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
-        <v>510000</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <v>43222</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
-        <v>1460000</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>43222</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>200000</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19">
-        <v>43223</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21">
-        <v>160000</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19">
-        <v>43224</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21">
-        <v>20000</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
-        <v>43227</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <v>43230</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21">
-        <v>28000</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19">
-        <v>43230</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21">
-        <v>253000</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19">
-        <v>43231</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21">
-        <v>22000</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19">
-        <v>43232</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21">
-        <v>500000</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19">
-        <v>43238</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21">
-        <v>318000</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19">
-        <v>43241</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21">
-        <v>330000</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19">
-        <v>43242</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>68000</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19">
-        <v>43249</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>40000</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19">
-        <v>43250</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>20000</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23">
-        <f>SUM(D2:D6)</f>
-        <v>6682000</v>
-      </c>
-      <c r="E21" s="23">
-        <f>SUM(E2:E20)</f>
-        <v>2800000</v>
-      </c>
-      <c r="F21" s="23">
-        <f>SUM(F2:F20)</f>
-        <v>1387000</v>
-      </c>
-      <c r="G21" s="24">
-        <f>D21+E21-F21</f>
-        <v>8095000</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3594,6 +3186,423 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Thang 4'!G36</f>
+        <v>6682000</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <f>D2+E2-F2</f>
+        <v>6682000</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="11">
+        <v>248000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>510000</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43222</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
+        <v>1460000</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43222</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>200000</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>43223</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21">
+        <v>160000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>43224</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>43227</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21">
+        <v>28000</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>43230</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21">
+        <v>253000</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>43231</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
+        <v>22000</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>43232</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
+        <v>500000</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>43238</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
+        <v>318000</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>43241</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
+        <v>330000</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>43242</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>68000</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>43249</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
+        <v>40000</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>43250</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="23">
+        <f>SUM(D2:D6)</f>
+        <v>6682000</v>
+      </c>
+      <c r="E21" s="23">
+        <f>SUM(E2:E20)</f>
+        <v>2800000</v>
+      </c>
+      <c r="F21" s="23">
+        <f>SUM(F2:F20)</f>
+        <v>1387000</v>
+      </c>
+      <c r="G21" s="24">
+        <f>D21+E21-F21</f>
+        <v>8095000</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>43252</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -4022,7 +4031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4700,7 +4709,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,10 +4817,14 @@
       <c r="B5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>28000</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
@@ -4822,10 +4835,14 @@
       <c r="B6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>24000</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
@@ -4836,10 +4853,14 @@
       <c r="B7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21">
+        <v>20000</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="20"/>
     </row>
@@ -5051,11 +5072,11 @@
       </c>
       <c r="F22" s="23">
         <f>SUM(F2:F21)</f>
-        <v>248000</v>
+        <v>320000</v>
       </c>
       <c r="G22" s="24">
         <f>D22+E22-F22</f>
-        <v>41800000</v>
+        <v>41728000</v>
       </c>
       <c r="H22" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -580,10 +580,33 @@
     <t>Giấy A0</t>
   </si>
   <si>
-    <t>Photo Answersheet + Photo lớp AK11</t>
-  </si>
-  <si>
     <t>In test cuối khóa Lớp BK8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Photo Answersheet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(100 tờ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Photo lớp AK11</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -594,7 +617,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +672,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -4031,7 +4062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4709,7 +4740,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,7 +4849,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4836,7 +4867,7 @@
         <v>176</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="184">
   <si>
     <t>STT</t>
   </si>
@@ -2478,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3172,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4740,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,8 +4826,8 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>176</v>
+      <c r="B4" s="13">
+        <v>43316</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -4845,8 +4845,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>176</v>
+      <c r="B5" s="13">
+        <v>43317</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>183</v>
@@ -4863,8 +4863,8 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>176</v>
+      <c r="B6" s="9">
+        <v>43317</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>182</v>
@@ -4881,8 +4881,8 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>176</v>
+      <c r="B7" s="9">
+        <v>43317</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>181</v>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
   <si>
     <t>STT</t>
   </si>
@@ -607,6 +607,12 @@
       </rPr>
       <t xml:space="preserve"> + Photo lớp AK11</t>
     </r>
+  </si>
+  <si>
+    <t>Mua phiếu chi</t>
+  </si>
+  <si>
+    <t>2 quyển</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3172,7 +3178,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4746,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,12 +4908,18 @@
       <c r="B8" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>28000</v>
+      </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="28"/>
+      <c r="H8" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
@@ -5103,11 +5115,11 @@
       </c>
       <c r="F22" s="23">
         <f>SUM(F2:F21)</f>
-        <v>320000</v>
+        <v>348000</v>
       </c>
       <c r="G22" s="24">
         <f>D22+E22-F22</f>
-        <v>41728000</v>
+        <v>41700000</v>
       </c>
       <c r="H22" s="22"/>
     </row>

--- a/thuchi2018.xlsx
+++ b/thuchi2018.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="185">
   <si>
     <t>STT</t>
   </si>
@@ -560,9 +560,6 @@
   </si>
   <si>
     <t>60k</t>
-  </si>
-  <si>
-    <t>8//2018</t>
   </si>
   <si>
     <t>Mua Giấy A4</t>
@@ -4623,7 +4620,7 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4652,7 +4649,7 @@
         <v>43312</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
@@ -4746,7 +4743,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,7 +4804,7 @@
         <v>41298000</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4844,7 +4841,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4855,7 +4852,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -4873,7 +4870,7 @@
         <v>43317</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -4891,7 +4888,7 @@
         <v>43317</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
@@ -4905,11 +4902,11 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>176</v>
+      <c r="B8" s="9">
+        <v>43320</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
@@ -4918,7 +4915,7 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4926,12 +4923,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>43316</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>43321</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>20000</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="20"/>
     </row>
@@ -4940,12 +4941,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>43318</v>
-      </c>
-      <c r="C10" s="20"/>
+        <v>43325</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>147000</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
@@ -4954,12 +4959,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>43318</v>
-      </c>
-      <c r="C11" s="20"/>
+        <v>43326</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>11000</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
     </row>
@@ -4968,12 +4977,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>43319</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>43328</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>16000</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
     </row>
@@ -5115,11 +5128,11 @@
       </c>
       <c r="F22" s="23">
         <f>SUM(F2:F21)</f>
-        <v>348000</v>
+        <v>542000</v>
       </c>
       <c r="G22" s="24">
         <f>D22+E22-F22</f>
-        <v>41700000</v>
+        <v>41506000</v>
       </c>
       <c r="H22" s="22"/>
     </row>
